--- a/movie information/movie.xlsx
+++ b/movie information/movie.xlsx
@@ -3455,14 +3455,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3492,6 +3485,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3499,9 +3500,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3515,21 +3539,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3538,7 +3556,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3562,15 +3594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3579,37 +3603,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3624,13 +3617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3642,19 +3635,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3672,7 +3731,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3684,25 +3779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3714,97 +3797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3815,6 +3808,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3837,7 +3880,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3847,30 +3890,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3889,177 +3908,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4414,15 +4407,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4446,6 +4439,11 @@
       </c>
       <c r="H1">
         <v>0</v>
+      </c>
+      <c r="L1" t="str">
+        <f>"{'name':"""&amp;A1&amp;""",'info':"""&amp;B1&amp;""",'loc':'"&amp;C1&amp;"','cate':'"&amp;D1&amp;"','ilink':'"&amp;E1&amp;"','clink':'"&amp;F1&amp;"','point':'"&amp;G1&amp;"','rand':'"&amp;H1&amp;"'}"</f>
+        <v>{'name':"玩具总动员4",'info':"　　《玩具总动员4》讲述：胡迪总是对自己身处这个世界的使命感到自信满满，他的首要任务永远都是要先照顾好自己的“孩子”——不管是老主人安迪还是新主人邦妮，但是当邦妮把她自制的、不情愿当玩具的Forky放进来后，胡迪将和他的新老朋友一起踏上一场公路冒险之旅，也让他明白作为一个玩具他所面对的“世界”会有多大。
+　　胡迪、巴斯光年、翠丝、蛋头先生、蛋头太太、弹簧狗、猪排博士、抱抱龙、太空外星人等集体回归，第四部还有新玩具——Forky首度登场！Forky由TonyHale配音，是邦妮用一次性叉勺改造的手工“玩具”。玩具存在的目的是为了给孩子带来欢乐，但是手工改造的玩具呢？Forky坚信自己不是玩具，就是个叉勺，所以要努力逃离玩具的世界！",'loc':'美国','cate':'喜剧/动画/奇幻','ilink':'https://movie.douban.com/subject/6850547/','clink':'https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2557284230.jpg','point':'8.8','rand':'0'}</v>
       </c>
     </row>
     <row r="2" spans="1:8">
